--- a/опт и Краснодар/2023/11,23/27,11,23 Сочи/дв 27,11,23 счрсч от филиала.xlsx
+++ b/опт и Краснодар/2023/11,23/27,11,23 Сочи/дв 27,11,23 счрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\27,11,23 Сочи\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\11,23\27,11,23 Сочи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B673957-1E7C-44B6-9CEC-D47B433BC7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB6634-55E7-4D76-80D8-1BB9932D6ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6281,8 +6281,8 @@
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q53" sqref="Q53"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
